--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36607</v>
+        <v>98698</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kamilly Castro</t>
+          <t>Ana Sophia Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>11486.06</v>
+        <v>4631.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16474</v>
+        <v>93687</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Otávio Rezende</t>
+          <t>Erick da Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>4713.18</v>
+        <v>11506.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72947</v>
+        <v>18833</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leandro Melo</t>
+          <t>Nicole Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>10347.02</v>
+        <v>12361.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1439</v>
+        <v>88740</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Cecília Vieira</t>
+          <t>Murilo Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>7226.64</v>
+        <v>3670.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50039</v>
+        <v>72655</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vicente Nogueira</t>
+          <t>Sofia Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>8179.12</v>
+        <v>5297.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3724</v>
+        <v>7289</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thomas Silveira</t>
+          <t>Diego Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>11965.59</v>
+        <v>9902.190000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52327</v>
+        <v>36826</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Benjamin Azevedo</t>
+          <t>Arthur Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>11136.73</v>
+        <v>6722.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11949</v>
+        <v>67508</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Maria Cecília Fogaça</t>
+          <t>Emanuella Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>4875.27</v>
+        <v>5528.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91664</v>
+        <v>27792</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Lívia Mendes</t>
+          <t>Levi Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>12312.63</v>
+        <v>5024.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52374</v>
+        <v>69106</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brenda Santos</t>
+          <t>Dra. Maria Clara da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>4716.82</v>
+        <v>10983.75</v>
       </c>
     </row>
   </sheetData>
